--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_26_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_26_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120387.022958539</v>
+        <v>21321226.08623482</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>120387.022958539</v>
+        <v>21321226.08623482</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80001.57415568414</v>
+        <v>10055535.29813926</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80001.57415568414</v>
+        <v>10055535.29813926</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608304580.456811</v>
+        <v>54419384.32327415</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12504.75256734943</v>
+        <v>1220592.073786637</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24501.75321942942</v>
+        <v>2370028.555827864</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36470.83362970638</v>
+        <v>3519465.037869089</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50626.84317502908</v>
+        <v>4353795.776700418</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62754.25344841499</v>
+        <v>5521601.651843569</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>74748.82178817139</v>
+        <v>6671038.133884798</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86759.47477997679</v>
+        <v>7820474.615926023</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>98756.01203415723</v>
+        <v>8969911.097967247</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>112500.545256844</v>
+        <v>9860875.52155927</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>124554.1673375971</v>
+        <v>11041873.71213294</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>136420.6544445932</v>
+        <v>12206842.50109785</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>148349.2589189455</v>
+        <v>13371811.29006277</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>160201.0997705897</v>
+        <v>14536780.07902769</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>173714.0769037841</v>
+        <v>15463201.55233828</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>194079.2684577542</v>
+        <v>15739927.66033573</v>
       </c>
     </row>
   </sheetData>
